--- a/data_kppn/IKPA_KPPN_SEPTEMBER_2022.xlsx
+++ b/data_kppn/IKPA_KPPN_SEPTEMBER_2022.xlsx
@@ -544,10 +544,8 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
+      <c r="B2" t="n">
+        <v>109</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
